--- a/writeup/repstudytest.xlsx
+++ b/writeup/repstudytest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chunh\Desktop\psych251\proassign\garciacastro2020\writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751EA80-2562-4AFE-A869-086CDE9A25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1FBD0-CF25-4B2F-8B04-D2C398A10A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="4820" windowWidth="16950" windowHeight="7840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>StartDate</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>IPAddress</t>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>ResponseId</t>
   </si>
   <si>
-    <t>LocationLatitude</t>
-  </si>
-  <si>
-    <t>LocationLongitude</t>
-  </si>
-  <si>
     <t>DistributionChannel</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>128.12.122.245</t>
   </si>
   <si>
     <t/>
@@ -549,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,76 +577,67 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44862.107418981483</v>
       </c>
@@ -668,41 +647,41 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
+      <c r="D2">
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F2">
-        <v>53</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>44862.108049594906</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>37.423000000000002</v>
-      </c>
-      <c r="K2">
-        <v>-122.1639</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -711,55 +690,46 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T2">
-        <v>6</v>
-      </c>
-      <c r="U2">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2">
         <v>16</v>
       </c>
       <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>16</v>
-      </c>
-      <c r="AB2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
         <v>3</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44862.108483796299</v>
       </c>
@@ -769,98 +739,89 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+      <c r="D3">
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>44862.109149837961</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>37.423000000000002</v>
-      </c>
-      <c r="K3">
-        <v>-122.1639</v>
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S3">
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3">
+        <v>15</v>
+      </c>
+      <c r="Y3">
         <v>3</v>
       </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>8</v>
-      </c>
-      <c r="V3">
-        <v>23</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>16</v>
+      <c r="Z3">
+        <v>3</v>
       </c>
       <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>3</v>
+      <c r="AC3" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44862.14162037037</v>
       </c>
@@ -870,98 +831,89 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+      <c r="D4">
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4">
-        <v>103</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>44862.142833090278</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>37.423000000000002</v>
-      </c>
-      <c r="K4">
-        <v>-122.1639</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>4</v>
       </c>
       <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>32</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>16</v>
+      <c r="Z4">
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44862.142893518518</v>
       </c>
@@ -971,98 +923,89 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44862.143817685188</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>78</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44862.143817685188</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>37.423000000000002</v>
-      </c>
-      <c r="K5">
-        <v>-122.1639</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>26</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
+      <c r="AC5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="AD5">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44862.143865740742</v>
       </c>
@@ -1072,101 +1015,92 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>44862.144576296298</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>37.423000000000002</v>
-      </c>
-      <c r="K6">
-        <v>-122.1639</v>
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>53</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA6">
-        <v>9</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <v>3</v>
+      <c r="AB6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG6">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D1 I1 L1 M1 AE1 D2:D6 I2:I6 L2:L6 M2:M6 N2 O2 X2:X6 Z2:Z6 AE2:AE6 N5:N6 O5:O6" numberStoredAsText="1"/>
+    <ignoredError sqref="H1 I1 J1 AB1 H2:H6 I2:I6 J2:J6 K2 L2 U2:U6 W2:W6 AB2:AB6 K5:K6 L5:L6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>